--- a/pacman_pics_n_fields/топ пакмана.xlsx
+++ b/pacman_pics_n_fields/топ пакмана.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,17 +401,129 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>ffgdfghh</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>226771.1322003973</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>90620</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>20550</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kirill</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kirill1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kirill2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kirill3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kirill4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kirill5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kirill6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
